--- a/Codes/useless/newCodes/contact_priorty_info.xlsx
+++ b/Codes/useless/newCodes/contact_priorty_info.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
     <sheet name="volume" sheetId="2" r:id="rId2"/>
     <sheet name="pp_hospital" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="25">
   <si>
     <t>type.a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pp_deployment_quality_index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pp_customer_relationship_index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,6 +108,10 @@
   </si>
   <si>
     <t>pp_real_volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pp_deployment_quality_index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1305,7 +1306,7 @@
   <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4063,8 +4064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" activeCellId="1" sqref="F1:F1048576 G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4086,34 +4087,34 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>15</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -5554,6 +5555,601 @@
       </c>
       <c r="K41">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="4" width="43.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>500000</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>500000</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>500000</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>500000</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>500000</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>500000</v>
+      </c>
+      <c r="D7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>500000</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>500000</v>
+      </c>
+      <c r="D9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>500000</v>
+      </c>
+      <c r="D10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>500000</v>
+      </c>
+      <c r="D11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>500000</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>500000</v>
+      </c>
+      <c r="D13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>500000</v>
+      </c>
+      <c r="D14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>500000</v>
+      </c>
+      <c r="D15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>500000</v>
+      </c>
+      <c r="D16">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>500000</v>
+      </c>
+      <c r="D17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>500000</v>
+      </c>
+      <c r="D18">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>500000</v>
+      </c>
+      <c r="D19">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>500000</v>
+      </c>
+      <c r="D20">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>500000</v>
+      </c>
+      <c r="D21">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>500000</v>
+      </c>
+      <c r="D22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>500000</v>
+      </c>
+      <c r="D23">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>500000</v>
+      </c>
+      <c r="D24">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>500000</v>
+      </c>
+      <c r="D25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>500000</v>
+      </c>
+      <c r="D26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>500000</v>
+      </c>
+      <c r="D27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>500000</v>
+      </c>
+      <c r="D28">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>500000</v>
+      </c>
+      <c r="D29">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>500000</v>
+      </c>
+      <c r="D30">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>500000</v>
+      </c>
+      <c r="D31">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>500000</v>
+      </c>
+      <c r="D32">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>500000</v>
+      </c>
+      <c r="D33">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>500000</v>
+      </c>
+      <c r="D34">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>500000</v>
+      </c>
+      <c r="D35">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>500000</v>
+      </c>
+      <c r="D36">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>500000</v>
+      </c>
+      <c r="D37">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>500000</v>
+      </c>
+      <c r="D38">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>500000</v>
+      </c>
+      <c r="D39">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>500000</v>
+      </c>
+      <c r="D40">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>500000</v>
+      </c>
+      <c r="D41">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
